--- a/medicine/Œil et vue/Mode_sombre/Mode_sombre.xlsx
+++ b/medicine/Œil et vue/Mode_sombre/Mode_sombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mode sombre (dark mode en anglais) est un choix de couleur (ou thème) appliqué aux icônes, textes et interfaces homme-machine affichées sur un fond sombre d'un site internet ou d'un système d'exploitation.
-Dans certaines conditions d'éclairage[1], ce choix de couleur serait utile pour réduire la fatigue visuelle et la consommation en énergie par rapport aux autres modes d'affichage[2],[3]. Des utilisateurs en sont adeptes et envoient des demandes aux sites internet ; mais les études divergent sur le gain de confort en mode sombre[4] ou aux développeurs logiciels pour le support de ce mode mais les études récentes démontrent que 25% de la population rencontrent des difficultés de lecture en mode sombre, notamment les myopes et les astigmates[5].
-En luminosité normale, plusieurs études, dont celle du Sensory Perception &amp; Interaction Research Group,  ont montré que la lecture sur fond blanc est plus facile et plus rapide que sur fond noir. Avec un fond noir, l’œil est aussi victime d’un « effet de halo » qui rend le texte blanc moins lisible[6],[5].
-Le mode sombre réduit la consommation des écrans OLED, les écrans LCD[2] n'en bénéficient pas.
-D'un point de vue médical le bénéfice de ce mode n'est pas établi[7], mais offrir aux utilisateurs la possibilité de l'activer est conseillée[8]. Le mode expose l'utilisateur à moins de lumière bleue, soupçonnée d'être nocive pour la  rétine[9] et certainement responsable de troubles du sommeil en cas d'exposition nocturne prolongée, les écrans et smartphones récents intègrent des filtres anti lumières bleues qui rendent inutiles l'usage du mode sombre.
-Des extensions et des APIs permettent la configuration en mode sombre des navigateurs internet et des différents systèmes d'exploitation[10],[11].
-Le 24 novembre 2023, la fondation Wikimédia annonce[12] se lancer dans le développement d'un mode sombre officiel pour Wikipédia, devant le grand nombre de demandes[13].
+Dans certaines conditions d'éclairage, ce choix de couleur serait utile pour réduire la fatigue visuelle et la consommation en énergie par rapport aux autres modes d'affichage,. Des utilisateurs en sont adeptes et envoient des demandes aux sites internet ; mais les études divergent sur le gain de confort en mode sombre ou aux développeurs logiciels pour le support de ce mode mais les études récentes démontrent que 25% de la population rencontrent des difficultés de lecture en mode sombre, notamment les myopes et les astigmates.
+En luminosité normale, plusieurs études, dont celle du Sensory Perception &amp; Interaction Research Group,  ont montré que la lecture sur fond blanc est plus facile et plus rapide que sur fond noir. Avec un fond noir, l’œil est aussi victime d’un « effet de halo » qui rend le texte blanc moins lisible,.
+Le mode sombre réduit la consommation des écrans OLED, les écrans LCD n'en bénéficient pas.
+D'un point de vue médical le bénéfice de ce mode n'est pas établi, mais offrir aux utilisateurs la possibilité de l'activer est conseillée. Le mode expose l'utilisateur à moins de lumière bleue, soupçonnée d'être nocive pour la  rétine et certainement responsable de troubles du sommeil en cas d'exposition nocturne prolongée, les écrans et smartphones récents intègrent des filtres anti lumières bleues qui rendent inutiles l'usage du mode sombre.
+Des extensions et des APIs permettent la configuration en mode sombre des navigateurs internet et des différents systèmes d'exploitation,.
+Le 24 novembre 2023, la fondation Wikimédia annonce se lancer dans le développement d'un mode sombre officiel pour Wikipédia, devant le grand nombre de demandes.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Mode sombre et mode nuit ou chaud</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mode sombre, adapté à l'usage des écrans dans un espace peu éclairé[7], n'est pas le mode nuit — dit aussi warm ou blanc chaud[3], qui est un changement de la couleur générale des écrans, pour qu'elle corresponde à une lumière artificielle (de température de couleur plus basse), plutôt qu'à la lumière du jour, comme l'affichage standard. L'exposition à une lumière du jour aux heures de la nuit est de nature à perturber l'alternance du sommeil et de la veille. Le mode nuit réduit l'émission de lumière bleue des écrans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode sombre, adapté à l'usage des écrans dans un espace peu éclairé, n'est pas le mode nuit — dit aussi warm ou blanc chaud, qui est un changement de la couleur générale des écrans, pour qu'elle corresponde à une lumière artificielle (de température de couleur plus basse), plutôt qu'à la lumière du jour, comme l'affichage standard. L'exposition à une lumière du jour aux heures de la nuit est de nature à perturber l'alternance du sommeil et de la veille. Le mode nuit réduit l'émission de lumière bleue des écrans.
 Le mode nuit n'exige aucune adaptation des contenus, c'est un réglage des écrans, au même titre que la luminosité ou le contraste. Le mode sombre ne change aucun réglage des écrans. C'est une transformation de l'ensemble des contenus, de sorte que les textes apparaissent en clair sur fond noir.
 </t>
         </is>
